--- a/input/s_filter.xlsx
+++ b/input/s_filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomater\DDP-Reporting-Template-Automation\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879B3E6-282E-423D-8530-D9EB3E9DCB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0EE06-BF92-4299-9266-137F9DAA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="8415" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="5175" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commerce" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="55">
   <si>
     <t>Process</t>
   </si>
@@ -95,6 +95,108 @@
   </si>
   <si>
     <t>TargetUnit</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>[2020, 2030, 2040, 2050]</t>
+  </si>
+  <si>
+    <t>['netzero_9_imagine']</t>
+  </si>
+  <si>
+    <t>['tkm']</t>
+  </si>
+  <si>
+    <t>['Transport']</t>
+  </si>
+  <si>
+    <t>btkm</t>
+  </si>
+  <si>
+    <t>['Activity']</t>
+  </si>
+  <si>
+    <t>['FreightRoad', 'FreightRail']</t>
+  </si>
+  <si>
+    <t>bvkm</t>
+  </si>
+  <si>
+    <t>['Capacity']</t>
+  </si>
+  <si>
+    <t>kvehicles</t>
+  </si>
+  <si>
+    <t>['FreightRoad']</t>
+  </si>
+  <si>
+    <t>['FreightRail']</t>
+  </si>
+  <si>
+    <t>['HCV1Electric', 'HCV1Oil', 'HCV2-5Electric', 'HCV2-5Hydrogen', 'HCV2-5Oil', 'HCV6-9Electric', 'HCV6-9Hydrogen', 'HCV6-9Oil']</t>
+  </si>
+  <si>
+    <t>['LCVElectric', 'LCVOil']</t>
+  </si>
+  <si>
+    <t>['NewCapacity (GW)']</t>
+  </si>
+  <si>
+    <t>['HCV1Oil', 'HCV2-5Oil', 'HCV6-9Oil']</t>
+  </si>
+  <si>
+    <t>['HCV1Electric', 'HCV2-5Electric', 'HCV6-9Electric']</t>
+  </si>
+  <si>
+    <t>['HCV2-5Hydrogen', 'HCV6-9Hydrogen']</t>
+  </si>
+  <si>
+    <t>['LCVOil']</t>
+  </si>
+  <si>
+    <t>['LCVElectric']</t>
+  </si>
+  <si>
+    <t>['FlowIn']</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>['TRAODS', 'TRAOGS']</t>
+  </si>
+  <si>
+    <t>['TRAELC']</t>
+  </si>
+  <si>
+    <t>['TRAHGN']</t>
+  </si>
+  <si>
+    <t>['CO2']</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>['CH4']</t>
+  </si>
+  <si>
+    <t>['N2O']</t>
+  </si>
+  <si>
+    <t>['NOXS']</t>
+  </si>
+  <si>
+    <t>['FlowOut']</t>
+  </si>
+  <si>
+    <t>kt</t>
+  </si>
+  <si>
+    <t>['SOXS']</t>
   </si>
 </sst>
 </file>
@@ -434,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +622,2996 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>114</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>120</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>127</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>153</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>159</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>256</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>257</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>259</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" t="s">
+        <v>21</v>
+      </c>
+      <c r="T47" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/input/s_filter.xlsx
+++ b/input/s_filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0EE06-BF92-4299-9266-137F9DAA0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36561541-6CA5-4B58-BEFF-FF807D078BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="5175" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commerce" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>['LCVElectric', 'LCVOil']</t>
   </si>
   <si>
-    <t>['NewCapacity (GW)']</t>
-  </si>
-  <si>
     <t>['HCV1Oil', 'HCV2-5Oil', 'HCV6-9Oil']</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>['SOXS']</t>
+  </si>
+  <si>
+    <t>['NewCapacity']</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
@@ -1425,7 +1425,7 @@
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>21</v>
@@ -1502,7 +1502,7 @@
         <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
@@ -1567,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -1632,7 +1632,7 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
@@ -1685,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
         <v>21</v>
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -1750,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1762,7 +1762,7 @@
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" t="s">
         <v>21</v>
@@ -1815,7 +1815,7 @@
         <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
@@ -1827,7 +1827,7 @@
         <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
@@ -1892,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
@@ -1957,7 +1957,7 @@
         <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -2010,7 +2010,7 @@
         <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>21</v>
@@ -2022,7 +2022,7 @@
         <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
@@ -2075,7 +2075,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2087,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
@@ -2140,7 +2140,7 @@
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2179,7 +2179,7 @@
         <v>21</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2244,7 +2244,7 @@
         <v>21</v>
       </c>
       <c r="U26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
         <v>21</v>
@@ -2309,7 +2309,7 @@
         <v>21</v>
       </c>
       <c r="U27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
         <v>21</v>
@@ -2347,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -2374,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -2412,7 +2412,7 @@
         <v>32</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
@@ -2439,7 +2439,7 @@
         <v>21</v>
       </c>
       <c r="U29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
         <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
         <v>21</v>
@@ -2477,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
@@ -2504,7 +2504,7 @@
         <v>21</v>
       </c>
       <c r="U30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
         <v>21</v>
@@ -2542,7 +2542,7 @@
         <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
@@ -2569,7 +2569,7 @@
         <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
         <v>21</v>
@@ -2607,7 +2607,7 @@
         <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
@@ -2634,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="U32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
         <v>21</v>
@@ -2672,7 +2672,7 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
@@ -2699,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="U33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>22</v>
@@ -2725,7 +2725,7 @@
         <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
         <v>21</v>
@@ -2764,7 +2764,7 @@
         <v>21</v>
       </c>
       <c r="U34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
@@ -2790,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
         <v>21</v>
@@ -2829,7 +2829,7 @@
         <v>21</v>
       </c>
       <c r="U35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
         <v>22</v>
@@ -2855,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
         <v>21</v>
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="U36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>23</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
         <v>21</v>
@@ -2959,7 +2959,7 @@
         <v>21</v>
       </c>
       <c r="U37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2985,7 +2985,7 @@
         <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -3024,7 +3024,7 @@
         <v>21</v>
       </c>
       <c r="U38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>23</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
         <v>21</v>
@@ -3089,7 +3089,7 @@
         <v>21</v>
       </c>
       <c r="U39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -3127,7 +3127,7 @@
         <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M40" t="s">
         <v>21</v>
@@ -3154,7 +3154,7 @@
         <v>21</v>
       </c>
       <c r="U40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3180,7 +3180,7 @@
         <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
         <v>21</v>
@@ -3192,7 +3192,7 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M41" t="s">
         <v>21</v>
@@ -3219,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="U41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
         <v>21</v>
@@ -3284,7 +3284,7 @@
         <v>21</v>
       </c>
       <c r="U42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
         <v>21</v>
@@ -3349,7 +3349,7 @@
         <v>21</v>
       </c>
       <c r="U43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
         <v>21</v>
@@ -3387,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
@@ -3414,7 +3414,7 @@
         <v>21</v>
       </c>
       <c r="U44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>23</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
         <v>21</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="L45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
@@ -3479,7 +3479,7 @@
         <v>21</v>
       </c>
       <c r="U45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3496,16 +3496,16 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" t="s">
         <v>51</v>
-      </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" t="s">
-        <v>52</v>
       </c>
       <c r="I46" t="s">
         <v>21</v>
@@ -3544,7 +3544,7 @@
         <v>21</v>
       </c>
       <c r="U46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
         <v>22</v>
@@ -3570,7 +3570,7 @@
         <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
         <v>21</v>
@@ -3609,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="U47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/input/s_filter.xlsx
+++ b/input/s_filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863DD973-2C54-484C-AB81-304F64C2383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CCC18B-B3D2-4BD6-958F-099DA9BBB676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="76">
   <si>
     <t>Process</t>
   </si>
@@ -121,9 +121,6 @@
     <t>['FreightRail', 'FreightRoad', 'FreightPip']</t>
   </si>
   <si>
-    <t>['Ammonia', 'Chemicals33', 'FuelCells', 'Iron_Steel351', 'NMMProducts34','FerroAlloys', 'Electrolysers', Pulp_Paper323', Aluminium35220]</t>
-  </si>
-  <si>
     <t>['Mining2', 'PGM', 'PNFMetals352', 'Food_Bev_Tob30', 'IndOther']</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>['Power']</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
     <t>['FlowIn']</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>['ECoal_Existing', 'AutoGen-Chemical-Coal', 'AutoGen-EnergySupply-Coal']</t>
   </si>
   <si>
-    <t>['EGas_Existing', 'AutoGen-Chemical-Gas', 'AutoGen-EnergySupply-Gas']</t>
-  </si>
-  <si>
     <t>['ECSP', 'EPV']</t>
   </si>
   <si>
@@ -226,9 +217,6 @@
     <t>['CO2CAPT']</t>
   </si>
   <si>
-    <t>['Ebattery', 'Ehydrogen', 'EPumpStorage']</t>
-  </si>
-  <si>
     <t>['Coal']</t>
   </si>
   <si>
@@ -250,10 +238,28 @@
     <t>['FlowInMt']</t>
   </si>
   <si>
-    <t>['ECoal', 'AutoGen-Chemical', 'AutoGen-Supply']</t>
-  </si>
-  <si>
-    <t>['EGas', 'AutoGen-Chemical', 'AutoGen-Supply']</t>
+    <t>['ECoal', 'AutoGen-Chemical', 'AutoGen-EnergySupply']</t>
+  </si>
+  <si>
+    <t>['EGas', 'AutoGen-Chemical', 'AutoGen-EnergySupply']</t>
+  </si>
+  <si>
+    <t>['EGas', 'AutoGen-Chemical-Gas', 'AutoGen-EnergySupply-Gas']</t>
+  </si>
+  <si>
+    <t>['EGas_CCS']</t>
+  </si>
+  <si>
+    <t>['Ammonia', 'Chemicals33', 'FuelCells', 'Iron_Steel351', 'NMMProducts34','FerroAlloys', 'Electrolysers', Pulp_Paper323', 'NMMGlass', 'Aluminium35220']</t>
+  </si>
+  <si>
+    <t>['EBattery', 'EHydrogen', 'EPumpStorage']</t>
+  </si>
+  <si>
+    <t>['ETRANSDUM']</t>
+  </si>
+  <si>
+    <t>['ACTGRP']</t>
   </si>
 </sst>
 </file>
@@ -607,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
@@ -717,13 +723,13 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -747,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
         <v>20</v>
@@ -782,13 +788,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -815,7 +821,7 @@
         <v>20</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
         <v>20</v>
@@ -847,13 +853,13 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -880,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
         <v>20</v>
@@ -912,40 +918,40 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
         <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" t="s">
-        <v>47</v>
       </c>
       <c r="T5" t="s">
         <v>20</v>
@@ -977,40 +983,40 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
         <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" t="s">
-        <v>47</v>
       </c>
       <c r="T6" t="s">
         <v>20</v>
@@ -1042,40 +1048,40 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" t="s">
-        <v>47</v>
       </c>
       <c r="T7" t="s">
         <v>20</v>
@@ -1107,40 +1113,40 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" t="s">
-        <v>47</v>
       </c>
       <c r="T8" t="s">
         <v>20</v>
@@ -1172,40 +1178,40 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>47</v>
       </c>
       <c r="T9" t="s">
         <v>20</v>
@@ -1237,40 +1243,40 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
         <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
       </c>
       <c r="T10" t="s">
         <v>20</v>
@@ -1302,19 +1308,19 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>32</v>
-      </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
@@ -1341,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1367,19 +1373,19 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -1400,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
         <v>20</v>
@@ -1432,16 +1438,16 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
@@ -1465,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
         <v>20</v>
@@ -1497,19 +1503,19 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1530,7 +1536,7 @@
         <v>20</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
         <v>20</v>
@@ -1562,16 +1568,16 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
@@ -1595,7 +1601,7 @@
         <v>20</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
         <v>20</v>
@@ -1627,16 +1633,16 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -1660,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
         <v>20</v>
@@ -1692,16 +1698,16 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
@@ -1725,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
         <v>20</v>
@@ -1757,16 +1763,16 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
         <v>20</v>
@@ -1790,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
         <v>20</v>
@@ -1822,16 +1828,16 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
         <v>20</v>
@@ -1855,7 +1861,7 @@
         <v>20</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s">
         <v>20</v>
@@ -1887,19 +1893,19 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
         <v>55</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
@@ -1920,7 +1926,7 @@
         <v>20</v>
       </c>
       <c r="S20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
         <v>20</v>
@@ -1952,19 +1958,19 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" t="s">
         <v>20</v>
@@ -1985,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s">
         <v>20</v>
@@ -2017,16 +2023,16 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
         <v>20</v>
@@ -2050,7 +2056,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
         <v>20</v>
@@ -2082,16 +2088,16 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
@@ -2115,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s">
         <v>20</v>
@@ -2147,19 +2153,19 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
         <v>20</v>
@@ -2212,19 +2218,19 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
@@ -2262,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2277,16 +2283,16 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
         <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="L26" t="s">
         <v>20</v>
@@ -2327,7 +2333,7 @@
         <v>24</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -2342,16 +2348,16 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
         <v>20</v>
@@ -2392,7 +2398,7 @@
         <v>24</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
@@ -2407,16 +2413,16 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -2457,7 +2463,7 @@
         <v>24</v>
       </c>
       <c r="C29">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -2472,16 +2478,16 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
@@ -2522,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -2537,19 +2543,19 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
@@ -2576,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -2587,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -2602,19 +2608,19 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
@@ -2641,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -2652,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="C32">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
@@ -2667,19 +2673,19 @@
         <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
         <v>20</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
@@ -2706,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -2717,7 +2723,7 @@
         <v>24</v>
       </c>
       <c r="C33">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
@@ -2732,19 +2738,19 @@
         <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
         <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M33" t="s">
         <v>20</v>
@@ -2771,7 +2777,7 @@
         <v>20</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -2782,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="C34">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
@@ -2797,16 +2803,16 @@
         <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
@@ -2836,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2847,7 +2853,7 @@
         <v>24</v>
       </c>
       <c r="C35">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
@@ -2862,16 +2868,16 @@
         <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
@@ -2901,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2912,7 +2918,7 @@
         <v>24</v>
       </c>
       <c r="C36">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -2927,16 +2933,16 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
@@ -2966,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2977,7 +2983,7 @@
         <v>24</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
         <v>20</v>
@@ -2992,16 +2998,16 @@
         <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
@@ -3031,7 +3037,7 @@
         <v>20</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -3042,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
         <v>20</v>
@@ -3057,19 +3063,19 @@
         <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
         <v>20</v>
@@ -3096,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="U38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3107,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="C39">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -3122,19 +3128,19 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="L39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M39" t="s">
         <v>20</v>
@@ -3161,7 +3167,7 @@
         <v>20</v>
       </c>
       <c r="U39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3172,7 +3178,7 @@
         <v>24</v>
       </c>
       <c r="C40">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
@@ -3187,19 +3193,19 @@
         <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M40" t="s">
         <v>20</v>
@@ -3226,7 +3232,7 @@
         <v>20</v>
       </c>
       <c r="U40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -3237,7 +3243,7 @@
         <v>24</v>
       </c>
       <c r="C41">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
@@ -3252,16 +3258,16 @@
         <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
@@ -3291,7 +3297,7 @@
         <v>20</v>
       </c>
       <c r="U41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -3302,7 +3308,7 @@
         <v>24</v>
       </c>
       <c r="C42">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
@@ -3317,16 +3323,16 @@
         <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>20</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="L42" t="s">
         <v>20</v>
@@ -3350,13 +3356,13 @@
         <v>20</v>
       </c>
       <c r="S42" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="T42" t="s">
         <v>20</v>
       </c>
       <c r="U42" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -3367,7 +3373,7 @@
         <v>24</v>
       </c>
       <c r="C43">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -3382,13 +3388,13 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
         <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43" t="s">
         <v>20</v>
@@ -3415,13 +3421,13 @@
         <v>20</v>
       </c>
       <c r="S43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="T43" t="s">
         <v>20</v>
       </c>
       <c r="U43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3432,7 +3438,7 @@
         <v>24</v>
       </c>
       <c r="C44">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -3447,13 +3453,13 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
@@ -3480,13 +3486,13 @@
         <v>20</v>
       </c>
       <c r="S44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="T44" t="s">
         <v>20</v>
       </c>
       <c r="U44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3497,7 +3503,7 @@
         <v>24</v>
       </c>
       <c r="C45">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>20</v>
@@ -3512,13 +3518,13 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
         <v>20</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
@@ -3545,13 +3551,13 @@
         <v>20</v>
       </c>
       <c r="S45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T45" t="s">
         <v>20</v>
       </c>
       <c r="U45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3562,7 +3568,7 @@
         <v>24</v>
       </c>
       <c r="C46">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -3577,13 +3583,13 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
         <v>20</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
@@ -3610,13 +3616,13 @@
         <v>20</v>
       </c>
       <c r="S46" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T46" t="s">
         <v>20</v>
       </c>
       <c r="U46" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3627,61 +3633,126 @@
         <v>24</v>
       </c>
       <c r="C47">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" t="s">
+        <v>66</v>
+      </c>
+      <c r="T47" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48">
         <v>157</v>
       </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" t="s">
-        <v>65</v>
-      </c>
-      <c r="T47" t="s">
-        <v>20</v>
-      </c>
-      <c r="U47" t="s">
-        <v>66</v>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
